--- a/02-Avancado1-Funcoes/01-RevisaoExcelEssencial/Aula-09-ExcelAvancado1-Revisao-CopiaAbsoluta.xlsx
+++ b/02-Avancado1-Funcoes/01-RevisaoExcelEssencial/Aula-09-ExcelAvancado1-Revisao-CopiaAbsoluta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\01-RevisaoExcelEssencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3395E5-5CA1-4085-8B41-E6989AB728D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD48F236-8642-47EB-8CAA-79D2FD6B36DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cópia Absoluta" sheetId="3" r:id="rId1"/>
@@ -49,83 +49,6 @@
     <t>Desconto pelo tipo de pagamento.:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Executar o cálculo de desconto para o pagamento em </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dinheiro (40%)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, no </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pix (30%)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, no </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Boleto (20%)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> e no </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Crédito (10%)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>. Descobrir o valor do Percentual de Desconto de cada cursos e diminuir do preço atual (mostrar o valor já com o desconto).</t>
-    </r>
-  </si>
-  <si>
     <t>Descrição (Cursos)</t>
   </si>
   <si>
@@ -203,6 +126,83 @@
   </si>
   <si>
     <t>https://support.microsoft.com/pt-br/office/mover-ou-copiar-uma-f%C3%B3rmula-1f5cf825-9b07-41b1-8719-bf88b07450c6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Executar o cálculo de desconto para o pagamento em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dinheiro (40%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pix (30%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Boleto (20%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Crédito (10%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Descobrir o valor do Percentual de Desconto de cada curso e diminuir do preço atual (mostrar o valor já com o desconto).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -241,36 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +277,36 @@
     <font>
       <sz val="16"/>
       <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -372,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,28 +397,25 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -551,7 +548,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>225924</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>175050</xdr:rowOff>
+      <xdr:rowOff>128667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -922,25 +919,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="14.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="13.8">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -948,7 +945,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -956,7 +953,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -964,7 +961,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -972,7 +969,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -981,19 +978,19 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1002,7 +999,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -1069,62 +1066,62 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:2"/>
     <row r="18" spans="2:2" ht="21">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="12" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:2"/>
     <row r="21" spans="2:2" ht="21">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:2"/>
     <row r="24" spans="2:2" ht="21">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="12" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:2"/>
